--- a/StructureDefinition-ncpi-condition-summary.xlsx
+++ b/StructureDefinition-ncpi-condition-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition-summary.xlsx
+++ b/StructureDefinition-ncpi-condition-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition-summary.xlsx
+++ b/StructureDefinition-ncpi-condition-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition-summary.xlsx
+++ b/StructureDefinition-ncpi-condition-summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="399">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -268,8 +268,8 @@
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
   </si>
   <si>
-    <t>con-3:Condition.clinicalStatus SHOULD be present if verificationStatus is not entered-in-error and category is problem-list-item {verificationStatus.empty().not() and verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').exists().not() and category.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-category' and code='problem-list-item').exists() implies clinicalStatus.empty().not()}
-con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where(((id.exists() and ('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url)))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(uri) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
+con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN, code=ASSERTION, value&lt;Diagnosis]</t>
-  </si>
-  <si>
-    <t>clinical.general</t>
   </si>
   <si>
     <t>Condition.id</t>
@@ -370,7 +367,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>IETF language tag</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -428,10 +425,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -482,10 +475,6 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Condition.extension:entity-asserter</t>
   </si>
   <si>
@@ -532,7 +521,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4B/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -551,7 +540,7 @@
     <t>Business identifiers assigned to this condition by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4B/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
   </si>
   <si>
     <t>Allows identification of the condition as it is known by various participating systems and in a way that remains consistent across servers.</t>
@@ -588,7 +577,7 @@
     <t>The clinical status of the condition or diagnosis.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-clinical|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-clinical|4.0.1</t>
   </si>
   <si>
     <t>con-3
@@ -627,7 +616,7 @@
     <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-ver-status|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-ver-status|4.0.1</t>
   </si>
   <si>
     <t>con-3
@@ -762,6 +751,10 @@
     <t>Condition.code.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -820,10 +813,6 @@
     <t>Condition.code.text</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Detailed description / free text about this condition.</t>
   </si>
   <si>
@@ -854,10 +843,10 @@
     <t>The anatomical location where this condition manifests itself.</t>
   </si>
   <si>
-    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4B/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
-  </si>
-  <si>
-    <t>SNOMED CT Body site concepts</t>
+    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/body-site</t>
@@ -1105,7 +1094,7 @@
   </si>
   <si>
     <t>con-1:Stage SHALL have summary or assessment {summary.exists() or assessment.exists()}
-ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}</t>
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>./inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="stage/grade"]</t>
@@ -1137,7 +1126,7 @@
     <t>Condition.stage.summary</t>
   </si>
   <si>
-    <t>Cancer staging information. Example ValueSet, [condition-stage](https://hl7.org/fhir/R4B/valueset-condition-stage.html)</t>
+    <t>Cancer staging information. Example ValueSet, [condition-stage](https://hl7.org/fhir/R4/valueset-condition-stage.html)</t>
   </si>
   <si>
     <t>A simple summary of the stage such as "Stage 3". The determination of the stage is disease-specific.</t>
@@ -1203,7 +1192,7 @@
   </si>
   <si>
     <t>con-2:evidence SHALL have code or details {code.exists() or detail.exists()}
-ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}</t>
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=SPRT].target[classCode=OBS, moodCode=EVN]</t>
@@ -1875,7 +1864,7 @@
         <v>88</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="s" s="2">
         <v>20</v>
@@ -1883,10 +1872,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1897,28 +1886,28 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1968,13 +1957,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -2003,10 +1992,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2017,25 +2006,25 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2086,19 +2075,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -2121,10 +2110,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2135,28 +2124,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2206,19 +2195,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -2241,10 +2230,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2255,7 +2244,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -2267,16 +2256,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2302,43 +2291,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -2361,21 +2350,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2387,16 +2376,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2446,31 +2435,31 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN7" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>20</v>
@@ -2481,14 +2470,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2507,16 +2496,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2566,7 +2555,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2578,7 +2567,7 @@
         <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>20</v>
@@ -2590,7 +2579,7 @@
         <v>20</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>20</v>
@@ -2601,10 +2590,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2627,13 +2616,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2672,17 +2661,17 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2694,7 +2683,7 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -2717,13 +2706,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>20</v>
@@ -2733,7 +2722,7 @@
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -2745,13 +2734,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2802,7 +2791,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2811,10 +2800,10 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -2837,13 +2826,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>20</v>
@@ -2853,7 +2842,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -2865,13 +2854,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2922,7 +2911,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2931,10 +2920,10 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
@@ -2957,13 +2946,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>20</v>
@@ -2985,13 +2974,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3042,7 +3031,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3051,10 +3040,10 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>20</v>
@@ -3077,14 +3066,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3097,25 +3086,25 @@
         <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -3164,7 +3153,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3176,7 +3165,7 @@
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>20</v>
@@ -3188,7 +3177,7 @@
         <v>20</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>20</v>
@@ -3199,10 +3188,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3222,22 +3211,22 @@
         <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -3286,7 +3275,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3298,10 +3287,10 @@
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
@@ -3310,10 +3299,10 @@
         <v>20</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>20</v>
@@ -3321,10 +3310,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3335,28 +3324,28 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3382,58 +3371,58 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="AJ15" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>20</v>
@@ -3441,10 +3430,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3455,28 +3444,28 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3502,69 +3491,69 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AP16" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3587,16 +3576,16 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3622,14 +3611,14 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Z17" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
       </c>
@@ -3646,7 +3635,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3658,22 +3647,22 @@
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>20</v>
@@ -3681,10 +3670,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3695,7 +3684,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -3707,16 +3696,16 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3742,102 +3731,102 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Z18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>220</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -3862,69 +3851,69 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="Z19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AA19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>234</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3935,7 +3924,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -3947,13 +3936,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>93</v>
+        <v>233</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4004,13 +3993,13 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
@@ -4028,7 +4017,7 @@
         <v>20</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>20</v>
@@ -4039,14 +4028,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4065,16 +4054,16 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4112,19 +4101,19 @@
         <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4136,7 +4125,7 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>20</v>
@@ -4148,7 +4137,7 @@
         <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>20</v>
@@ -4159,10 +4148,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4182,22 +4171,22 @@
         <v>20</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4246,7 +4235,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4258,7 +4247,7 @@
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>20</v>
@@ -4267,10 +4256,10 @@
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>20</v>
@@ -4281,10 +4270,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4295,31 +4284,31 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4368,19 +4357,19 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>20</v>
@@ -4389,10 +4378,10 @@
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>20</v>
@@ -4403,10 +4392,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4426,19 +4415,19 @@
         <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4464,13 +4453,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4488,7 +4477,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4500,33 +4489,33 @@
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4537,7 +4526,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -4549,13 +4538,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>93</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4606,13 +4595,13 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
@@ -4630,7 +4619,7 @@
         <v>20</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
@@ -4641,14 +4630,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4667,16 +4656,16 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4714,19 +4703,19 @@
         <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4738,7 +4727,7 @@
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
@@ -4750,7 +4739,7 @@
         <v>20</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -4761,13 +4750,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>20</v>
@@ -4777,7 +4766,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -4789,13 +4778,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4846,7 +4835,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4858,7 +4847,7 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
@@ -4881,13 +4870,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>20</v>
@@ -4897,7 +4886,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4909,13 +4898,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4966,7 +4955,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4978,7 +4967,7 @@
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>20</v>
@@ -5001,10 +4990,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5024,22 +5013,22 @@
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5088,7 +5077,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5100,7 +5089,7 @@
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>20</v>
@@ -5109,10 +5098,10 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
@@ -5123,10 +5112,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5137,31 +5126,31 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="O30" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5210,19 +5199,19 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
@@ -5231,10 +5220,10 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
@@ -5245,43 +5234,43 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5330,34 +5319,34 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>20</v>
@@ -5365,10 +5354,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5379,28 +5368,28 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5450,34 +5439,34 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>20</v>
@@ -5485,10 +5474,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5499,28 +5488,28 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K33" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5570,34 +5559,34 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>20</v>
@@ -5605,10 +5594,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5619,7 +5608,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -5631,16 +5620,16 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5690,19 +5679,19 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
@@ -5714,10 +5703,10 @@
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>20</v>
@@ -5725,10 +5714,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5739,25 +5728,25 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K35" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5808,19 +5797,19 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
@@ -5829,13 +5818,13 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>20</v>
@@ -5843,10 +5832,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5857,25 +5846,25 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K36" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5926,19 +5915,19 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
@@ -5950,10 +5939,10 @@
         <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>20</v>
@@ -5961,10 +5950,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5975,25 +5964,25 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K37" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6044,34 +6033,34 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>339</v>
-      </c>
       <c r="AN37" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>20</v>
@@ -6079,10 +6068,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6105,13 +6094,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6162,7 +6151,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6174,7 +6163,7 @@
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
@@ -6186,7 +6175,7 @@
         <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6197,10 +6186,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6211,7 +6200,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -6223,13 +6212,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6280,13 +6269,13 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
@@ -6304,7 +6293,7 @@
         <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6315,14 +6304,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6341,16 +6330,16 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6400,7 +6389,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6412,7 +6401,7 @@
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
@@ -6424,7 +6413,7 @@
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6435,14 +6424,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6455,25 +6444,25 @@
         <v>20</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6522,7 +6511,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6534,7 +6523,7 @@
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
@@ -6546,7 +6535,7 @@
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6557,10 +6546,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6571,7 +6560,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -6583,13 +6572,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6616,55 +6605,55 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>361</v>
-      </c>
       <c r="AM42" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6675,10 +6664,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6701,13 +6690,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6758,7 +6747,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6767,10 +6756,10 @@
         <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -6782,7 +6771,7 @@
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -6793,10 +6782,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6807,7 +6796,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6819,13 +6808,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6852,13 +6841,13 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -6876,19 +6865,19 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
@@ -6900,7 +6889,7 @@
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -6911,10 +6900,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6937,16 +6926,16 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6996,7 +6985,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7008,7 +6997,7 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -7020,7 +7009,7 @@
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7031,10 +7020,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7045,7 +7034,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -7057,13 +7046,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7114,13 +7103,13 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
@@ -7138,7 +7127,7 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7149,14 +7138,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7175,16 +7164,16 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7234,7 +7223,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7246,7 +7235,7 @@
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
@@ -7258,7 +7247,7 @@
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7269,14 +7258,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7289,25 +7278,25 @@
         <v>20</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7356,7 +7345,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7368,7 +7357,7 @@
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
@@ -7380,7 +7369,7 @@
         <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7391,10 +7380,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7414,16 +7403,16 @@
         <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7450,13 +7439,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7474,7 +7463,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7483,25 +7472,25 @@
         <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>20</v>
@@ -7509,10 +7498,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7532,16 +7521,16 @@
         <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7592,7 +7581,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7601,25 +7590,25 @@
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>20</v>
@@ -7627,10 +7616,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7653,13 +7642,13 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7710,7 +7699,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7722,19 +7711,19 @@
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-ncpi-condition-summary.xlsx
+++ b/StructureDefinition-ncpi-condition-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition-summary.xlsx
+++ b/StructureDefinition-ncpi-condition-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition-summary.xlsx
+++ b/StructureDefinition-ncpi-condition-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition-summary.xlsx
+++ b/StructureDefinition-ncpi-condition-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -455,10 +455,10 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Condition.extension:age-at-assertion</t>
-  </si>
-  <si>
-    <t>age-at-assertion</t>
+    <t>Condition.extension:ageAtAssertion</t>
+  </si>
+  <si>
+    <t>ageAtAssertion</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/age-at-event}
@@ -475,10 +475,10 @@
 </t>
   </si>
   <si>
-    <t>Condition.extension:entity-asserter</t>
-  </si>
-  <si>
-    <t>entity-asserter</t>
+    <t>Condition.extension:entityAsserter</t>
+  </si>
+  <si>
+    <t>entityAsserter</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/entity-asserter}
@@ -491,10 +491,10 @@
     <t>Person who recorded assertion about participant</t>
   </si>
   <si>
-    <t>Condition.extension:other-condition-modifiers</t>
-  </si>
-  <si>
-    <t>other-condition-modifiers</t>
+    <t>Condition.extension:otherConditionModifiers</t>
+  </si>
+  <si>
+    <t>otherConditionModifiers</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/other-condition-modifiers}
@@ -867,10 +867,10 @@
     <t>Condition.bodySite.extension</t>
   </si>
   <si>
-    <t>Condition.bodySite.extension:mcode-body-location-qualifier</t>
-  </si>
-  <si>
-    <t>mcode-body-location-qualifier</t>
+    <t>Condition.bodySite.extension:mcodeBodyLocationQualifier</t>
+  </si>
+  <si>
+    <t>mcodeBodyLocationQualifier</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-body-location-qualifier}
@@ -883,10 +883,10 @@
     <t>Qualifier to refine an body location. These include qualifiers for relative location, directionality, number, and plane, and exclude qualifiers for laterality.</t>
   </si>
   <si>
-    <t>Condition.bodySite.extension:mcode-laterality-qualifier</t>
-  </si>
-  <si>
-    <t>mcode-laterality-qualifier</t>
+    <t>Condition.bodySite.extension:mcodeLateralityQualifier</t>
+  </si>
+  <si>
+    <t>mcodeLateralityQualifier</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-laterality-qualifier}
@@ -1581,9 +1581,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.09765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.15625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.4765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="23.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ncpi-condition-summary.xlsx
+++ b/StructureDefinition-ncpi-condition-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition-summary.xlsx
+++ b/StructureDefinition-ncpi-condition-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition-summary.xlsx
+++ b/StructureDefinition-ncpi-condition-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition-summary.xlsx
+++ b/StructureDefinition-ncpi-condition-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition-summary.xlsx
+++ b/StructureDefinition-ncpi-condition-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition-summary.xlsx
+++ b/StructureDefinition-ncpi-condition-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition-summary.xlsx
+++ b/StructureDefinition-ncpi-condition-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition-summary.xlsx
+++ b/StructureDefinition-ncpi-condition-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition-summary.xlsx
+++ b/StructureDefinition-ncpi-condition-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
